--- a/dictionary/dictionary-weaver/src/test/resources/Dictionary.xlsx
+++ b/dictionary/dictionary-weaver/src/test/resources/Dictionary.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="758">
   <si>
     <t/>
   </si>
@@ -49,13 +49,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Nov 14, 2017</t>
+    <t>Dec 6, 2017</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>3:34:47 PM</t>
+    <t>5:09:47 AM</t>
   </si>
   <si>
     <t>Title</t>
@@ -676,7 +676,7 @@
   </si>
   <si>
     <t>C-CPM: AFib Treatment,
-Choice : Treatment : Rate vs Rhythm (4 times)</t>
+Choice : Treatment : Rate vs Rhythm (8 times)</t>
   </si>
   <si>
     <t>Blood Pressure</t>
@@ -718,7 +718,8 @@
 Glossary: Diabetes mellitis (Copy) (3 times),
 Glossary: Diabetes mellitis (Copy) (3 times),
 Glossary: Diabetes mellitus  (15 times),
-Glossary: Diabetes mellitus (Official) (11 times)</t>
+Glossary: Diabetes mellitus (Official) (11 times),
+Test Decision</t>
   </si>
   <si>
     <t>Diabetes Mellitus - Type I</t>
@@ -795,107 +796,111 @@
     <t>4a7d991735ea473b8d70c2218070b2fb</t>
   </si>
   <si>
+    <t>Choice : Treatment : Rate vs Rhythm</t>
+  </si>
+  <si>
+    <t>Normal Sinus Rhythm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/64730000 )</t>
+  </si>
+  <si>
+    <t>64730000</t>
+  </si>
+  <si>
+    <t>bbeaae401ca44e0e83a41a9123b55faf</t>
+  </si>
+  <si>
+    <t>etiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/134198009 )</t>
+  </si>
+  <si>
+    <t>134198009</t>
+  </si>
+  <si>
+    <t>88ca85bc372246038fbfeb1f697ef20b</t>
+  </si>
+  <si>
+    <t>hyperthyroidism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/34486009 )</t>
+  </si>
+  <si>
+    <t>34486009</t>
+  </si>
+  <si>
+    <t>5992a78ae697471385a951d8fa933b44</t>
+  </si>
+  <si>
+    <t>Is : Has | Current | Active + Hyperthyroidism (g FHIR) (3 times),
+Is : Has | Current | Active + Hyperthyroidism (g KED) (3 times),
+Is : Has | Current | Active + Hyperthyroidism (KED)</t>
+  </si>
+  <si>
+    <t>likely outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/410596003 )</t>
+  </si>
+  <si>
+    <t>410596003</t>
+  </si>
+  <si>
+    <t>a06358e946a14a1d9301647582055ae8</t>
+  </si>
+  <si>
+    <t>outcome of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/385676005 )</t>
+  </si>
+  <si>
+    <t>385676005</t>
+  </si>
+  <si>
+    <t>d2a5e211d3b94a9fbf9ffe2ee27e8919</t>
+  </si>
+  <si>
+    <t>partially successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/385670004 )</t>
+  </si>
+  <si>
+    <t>385670004</t>
+  </si>
+  <si>
+    <t>1e7f1e2c655d4a87b7a27f6302bc5e1a</t>
+  </si>
+  <si>
+    <t>precipitated by</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/410658008 )</t>
+  </si>
+  <si>
+    <t>410658008</t>
+  </si>
+  <si>
+    <t>760d40ebda3d44aca8a6ab80472b2ad4</t>
+  </si>
+  <si>
+    <t>regularity of heart rhythm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://snomed.info/id/364074009 )</t>
+  </si>
+  <si>
+    <t>364074009</t>
+  </si>
+  <si>
+    <t>ccb664b937a3466c88f3654e96484587</t>
+  </si>
+  <si>
     <t>Choice : Treatment : Rate vs Rhythm (2 times)</t>
-  </si>
-  <si>
-    <t>Normal Sinus Rhythm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/64730000 )</t>
-  </si>
-  <si>
-    <t>64730000</t>
-  </si>
-  <si>
-    <t>bbeaae401ca44e0e83a41a9123b55faf</t>
-  </si>
-  <si>
-    <t>etiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/134198009 )</t>
-  </si>
-  <si>
-    <t>134198009</t>
-  </si>
-  <si>
-    <t>88ca85bc372246038fbfeb1f697ef20b</t>
-  </si>
-  <si>
-    <t>hyperthyroidism</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/34486009 )</t>
-  </si>
-  <si>
-    <t>34486009</t>
-  </si>
-  <si>
-    <t>5992a78ae697471385a951d8fa933b44</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Active + Hyperthyroidism (2 times),
-Is : Has | Current | Active + Hyperthyroidism (g) (3 times)</t>
-  </si>
-  <si>
-    <t>likely outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/410596003 )</t>
-  </si>
-  <si>
-    <t>410596003</t>
-  </si>
-  <si>
-    <t>a06358e946a14a1d9301647582055ae8</t>
-  </si>
-  <si>
-    <t>outcome of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/385676005 )</t>
-  </si>
-  <si>
-    <t>385676005</t>
-  </si>
-  <si>
-    <t>d2a5e211d3b94a9fbf9ffe2ee27e8919</t>
-  </si>
-  <si>
-    <t>partially successful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/385670004 )</t>
-  </si>
-  <si>
-    <t>385670004</t>
-  </si>
-  <si>
-    <t>1e7f1e2c655d4a87b7a27f6302bc5e1a</t>
-  </si>
-  <si>
-    <t>precipitated by</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/410658008 )</t>
-  </si>
-  <si>
-    <t>410658008</t>
-  </si>
-  <si>
-    <t>760d40ebda3d44aca8a6ab80472b2ad4</t>
-  </si>
-  <si>
-    <t>regularity of heart rhythm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://snomed.info/id/364074009 )</t>
-  </si>
-  <si>
-    <t>364074009</t>
-  </si>
-  <si>
-    <t>ccb664b937a3466c88f3654e96484587</t>
   </si>
   <si>
     <t>success of</t>
@@ -1041,8 +1046,7 @@
   </si>
   <si>
     <t>HAS-BLED Score,
-Long term anticoagulation,
-Test Decision</t>
+Long term anticoagulation</t>
   </si>
   <si>
     <t>Adult (Mayo Expert)</t>
@@ -1084,6 +1088,10 @@
     <t>d0414932b7374b8489860ac586a0ad17</t>
   </si>
   <si>
+    <t>CHA2DS2-VASc,
+Test Decision</t>
+  </si>
+  <si>
     <t>Stroke</t>
   </si>
   <si>
@@ -1180,109 +1188,7 @@
     <t>c7c7cc29162246e6b450ae6d97ee0130</t>
   </si>
   <si>
-    <t>Description of :  Result of | Current | ECG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46825001 | Electrocardiographic monitoring (procedure) |
-</t>
-  </si>
-  <si>
-    <t>ff84eee3586b49f68a30b7aeb45c4eae</t>
-  </si>
-  <si>
-    <t>Choice : Treatment? : Antiarrhythmic Drugs,
-Myocardial Ischemia,
-Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Description of : On | Current | Anticoagulants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372862008 | Anticoagulant (substance) |
-81839001 | Anticoagulant (product) |
-</t>
-  </si>
-  <si>
-    <t>d8f66b0999a547f09fcdc332a8d79c23</t>
-  </si>
-  <si>
-    <t>Need : Acute Anticoagulation,
-Need : TEE</t>
-  </si>
-  <si>
-    <t>Description of : On | Past | Antiarrhythmic</t>
-  </si>
-  <si>
-    <t>b23e58cb8b3a450b9acc002808f52b46</t>
-  </si>
-  <si>
-    <t>Choice : Treatment? : Antiarrhythmic Drugs,
-Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Description of : Result of | Current | X-Ray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">363680008 | Radiographic imaging procedure (procedure) |
-</t>
-  </si>
-  <si>
-    <t>b0e4367c95544acc8efdf203cb9217f2</t>
-  </si>
-  <si>
-    <t>Choice : Treatment? : Antiarrhythmic Drugs,
-Heart Failure / Struct. Heart Disease,
-Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Description of : Result of | Most + Recent | ECG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46825001 | Electrocardiographic monitoring (procedure) |
-</t>
-  </si>
-  <si>
-    <t>b36354ff76c148038553d46c140149e6</t>
-  </si>
-  <si>
-    <t>Choice : Treatment? : Antiarrhythmic Drugs,
-Myocardial Ischemia,
-Need : Acute Anticoagulation,
-Need : Antiarrhythmic Drugs,
-Need : TEE</t>
-  </si>
-  <si>
-    <t>Description of : Result of | Most + Recent | X-Ray</t>
-  </si>
-  <si>
-    <t>46b7a4451460433db76c407288fef3fe</t>
-  </si>
-  <si>
-    <t>Description of : Subject of | Past | Coronary Angiogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33367005 | Coronary angiography (procedure) |
-</t>
-  </si>
-  <si>
-    <t>12d18d847d764b049b3c0cb7c77aef2f</t>
-  </si>
-  <si>
-    <t>Choice : Care Setting for Treatment</t>
-  </si>
-  <si>
-    <t>Description of : Subject of | Past | Episode of + Management of + Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>b1125b874bf84c13b01a16236f54064c</t>
-  </si>
-  <si>
-    <t>Choice : Care Setting for Treatment,
-Choice : Treatment? : Antiarrhythmic Drugs,
-Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Description of : Subject of | Past | Episode of + Management of + Regularity of Heart Rhythm</t>
+    <t>Descr : Past | Episode of - Management of - Regularity of Heart Rhythm</t>
   </si>
   <si>
     <t>443938003 | Procedure carried out on subject (situation) |
@@ -1295,10 +1201,109 @@
     <t>36e11fa355f6472f8c1d7103bc7a798b</t>
   </si>
   <si>
-    <t>Choice : Treatment : Rate vs Rhythm</t>
-  </si>
-  <si>
-    <t>Description of : Subject of | Past | PCI</t>
+    <t>Description of : Current | ECG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46825001 | Electrocardiographic monitoring (procedure) |
+</t>
+  </si>
+  <si>
+    <t>ff84eee3586b49f68a30b7aeb45c4eae</t>
+  </si>
+  <si>
+    <t>Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics,
+Myocardial Ischemia</t>
+  </si>
+  <si>
+    <t>Description of : Current | On - Anticoagulants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372862008 | Anticoagulant (substance) |
+81839001 | Anticoagulant (product) |
+</t>
+  </si>
+  <si>
+    <t>d8f66b0999a547f09fcdc332a8d79c23</t>
+  </si>
+  <si>
+    <t>Need : Acute Anticoagulation,
+Need : TEE</t>
+  </si>
+  <si>
+    <t>Description of : Current | X-Ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363680008 | Radiographic imaging procedure (procedure) |
+</t>
+  </si>
+  <si>
+    <t>b0e4367c95544acc8efdf203cb9217f2</t>
+  </si>
+  <si>
+    <t>Heart Failure / Struct. Heart Disease,
+Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Description of : History of | On - Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>b23e58cb8b3a450b9acc002808f52b46</t>
+  </si>
+  <si>
+    <t>Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Description of : Most Recent | ECG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46825001 | Electrocardiographic monitoring (procedure) |
+</t>
+  </si>
+  <si>
+    <t>b36354ff76c148038553d46c140149e6</t>
+  </si>
+  <si>
+    <t>Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics,
+Myocardial Ischemia,
+Need : Acute Anticoagulation,
+Need : TEE</t>
+  </si>
+  <si>
+    <t>Description of : Most Recent | X-Ray</t>
+  </si>
+  <si>
+    <t>46b7a4451460433db76c407288fef3fe</t>
+  </si>
+  <si>
+    <t>Description of : Past | Coronary Angiogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33367005 | Coronary angiography (procedure) |
+</t>
+  </si>
+  <si>
+    <t>12d18d847d764b049b3c0cb7c77aef2f</t>
+  </si>
+  <si>
+    <t>Choice : Care Setting for Treatment</t>
+  </si>
+  <si>
+    <t>Description of : Past | Episode of - Management of - Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>b1125b874bf84c13b01a16236f54064c</t>
+  </si>
+  <si>
+    <t>Choice : Care Setting for Treatment,
+Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Description of : Past | PCI</t>
   </si>
   <si>
     <t xml:space="preserve">415070008 | Percutaneous coronary intervention (procedure) |
@@ -1308,6 +1313,109 @@
     <t>9d46a6c665624490a149be10c162c816</t>
   </si>
   <si>
+    <t>Is : Current | Diaphoretic</t>
+  </si>
+  <si>
+    <t>SNOMED : 52613005 (finding)</t>
+  </si>
+  <si>
+    <t>b22e2be405914e418f028279d94f8b59</t>
+  </si>
+  <si>
+    <t>Low Output State</t>
+  </si>
+  <si>
+    <t>Is : Current | Dizziness</t>
+  </si>
+  <si>
+    <t>SNOMED - 404640003 (finding)</t>
+  </si>
+  <si>
+    <t>ae93e640b4ac44c38136355d74a5c768</t>
+  </si>
+  <si>
+    <t>Is : Current | Dyspnea</t>
+  </si>
+  <si>
+    <t>SNOMED 267036007 (finding)</t>
+  </si>
+  <si>
+    <t>c5e0dfbe56d0459eaa855f6c1c847bae</t>
+  </si>
+  <si>
+    <t>Choice : Treatment : Rate vs Rhythm,
+Heart Failure / Struct. Heart Disease</t>
+  </si>
+  <si>
+    <t>Is : Current | Elevated Concentration of - BNP</t>
+  </si>
+  <si>
+    <t>83651d93e9c34452b133d8aa0f26f5a7</t>
+  </si>
+  <si>
+    <t>Heart Failure / Struct. Heart Disease</t>
+  </si>
+  <si>
+    <t>Is : Current | Elevated Troponin Level</t>
+  </si>
+  <si>
+    <t>444931001 | Troponin I above reference range (finding) |</t>
+  </si>
+  <si>
+    <t>248bd587fbbd4e2fab246dcdde51657f</t>
+  </si>
+  <si>
+    <t>Myocardial Ischemia</t>
+  </si>
+  <si>
+    <t>Is : Current | Excessive Alcohol Use</t>
+  </si>
+  <si>
+    <t>SNOMED 160592001</t>
+  </si>
+  <si>
+    <t>8d80573689834c8eb8e2c24196cba8ae</t>
+  </si>
+  <si>
+    <t>Is : Current | Increased Venous Pressure</t>
+  </si>
+  <si>
+    <t>SNOMED 69791001 (finding)</t>
+  </si>
+  <si>
+    <t>d32b25050aaa4676b296ec9c07d19c2b</t>
+  </si>
+  <si>
+    <t>Is : Current | On - Negative Dromotropics</t>
+  </si>
+  <si>
+    <t>0b3dc48c8e2d4c929f6e21eb78115df0</t>
+  </si>
+  <si>
+    <t>Is : Current | Pale</t>
+  </si>
+  <si>
+    <t>274643008 | Body pale (finding) |</t>
+  </si>
+  <si>
+    <t>4bca6bb2185945ba86b8561320423adb</t>
+  </si>
+  <si>
+    <t>Is : Current | Precipitating Factor of - Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>71b2594bea1e4ec4b3eda1bdd81dd817</t>
+  </si>
+  <si>
+    <t>Is : Current | Rales</t>
+  </si>
+  <si>
+    <t>SNOMED : 48409008 (finding)</t>
+  </si>
+  <si>
+    <t>87539af84e75456b9d5581bce1e31d8c</t>
+  </si>
+  <si>
     <t>Is : Current | Stable</t>
   </si>
   <si>
@@ -1321,7 +1429,34 @@
     <t>Choice : Care Setting for Treatment (2 times)</t>
   </si>
   <si>
-    <t>Is : Found | Current | Caffeine User</t>
+    <t>Is : Current | Tachycardia</t>
+  </si>
+  <si>
+    <t>SNOMED : 3424008 (finding)</t>
+  </si>
+  <si>
+    <t>b1e31e027ea24b35bf806380b349d8c2</t>
+  </si>
+  <si>
+    <t>Is : Current | Third Heart Sound</t>
+  </si>
+  <si>
+    <t>SNOMED 277455002 (finding)</t>
+  </si>
+  <si>
+    <t>e089710f31c94c55a85b41b173ee308e</t>
+  </si>
+  <si>
+    <t>Is : Current | Tobacco Use and Exposure</t>
+  </si>
+  <si>
+    <t>SNOMED: 365980008</t>
+  </si>
+  <si>
+    <t>822498d8d3d1464094eae0d40c43e8ed</t>
+  </si>
+  <si>
+    <t>Is : Currently | Caffeine User</t>
   </si>
   <si>
     <t>SNOMED: 6796100011906 </t>
@@ -1330,172 +1465,100 @@
     <t>2d9fe9d862cf4aa981c96a418104454a</t>
   </si>
   <si>
-    <t>Is : Found | Current | Dizziness</t>
-  </si>
-  <si>
-    <t>SNOMED - 404640003 (finding)</t>
-  </si>
-  <si>
-    <t>ae93e640b4ac44c38136355d74a5c768</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Dyspnea</t>
-  </si>
-  <si>
-    <t>SNOMED 267036007 (finding)</t>
-  </si>
-  <si>
-    <t>c5e0dfbe56d0459eaa855f6c1c847bae</t>
+    <t>Is : Currently | Has - Active Coronary Artery Disease</t>
+  </si>
+  <si>
+    <t>53741008 | Coronary arteriosclerosis (disorder) |</t>
+  </si>
+  <si>
+    <t>c68b050647d649d1b4503b2efea22028</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Active Hyperthyroidism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperthyroid? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( http://concepts.kcm.mayo.edu89fe86f3-f7df-4eda-9896-33128029ccc9 )</t>
+  </si>
+  <si>
+    <t>7f71185382cf4197a28a0217f7aeac8e</t>
   </si>
   <si>
     <t>Choice : Treatment : Rate vs Rhythm,
-Heart Failure / Struct. Heart Disease</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Elevated + Concentration of + BNP</t>
-  </si>
-  <si>
-    <t>83651d93e9c34452b133d8aa0f26f5a7</t>
-  </si>
-  <si>
-    <t>Heart Failure / Struct. Heart Disease</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Elevated Troponin Level</t>
-  </si>
-  <si>
-    <t>444931001 | Troponin I above reference range (finding) |</t>
-  </si>
-  <si>
-    <t>248bd587fbbd4e2fab246dcdde51657f</t>
-  </si>
-  <si>
-    <t>Myocardial Ischemia</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Excessive Alcohol Use</t>
-  </si>
-  <si>
-    <t>SNOMED 160592001</t>
-  </si>
-  <si>
-    <t>8d80573689834c8eb8e2c24196cba8ae</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Increased Venous Pressure</t>
-  </si>
-  <si>
-    <t>SNOMED 69791001 (finding)</t>
-  </si>
-  <si>
-    <t>d32b25050aaa4676b296ec9c07d19c2b</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Pale</t>
-  </si>
-  <si>
-    <t>274643008 | Body pale (finding) |</t>
-  </si>
-  <si>
-    <t>4bca6bb2185945ba86b8561320423adb</t>
-  </si>
-  <si>
-    <t>Low Output State</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Precipitating Factor + Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>71b2594bea1e4ec4b3eda1bdd81dd817</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Rales</t>
-  </si>
-  <si>
-    <t>SNOMED : 48409008 (finding)</t>
-  </si>
-  <si>
-    <t>87539af84e75456b9d5581bce1e31d8c</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Tachycardia</t>
-  </si>
-  <si>
-    <t>SNOMED : 3424008 (finding)</t>
-  </si>
-  <si>
-    <t>b1e31e027ea24b35bf806380b349d8c2</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Third Heart Sound</t>
-  </si>
-  <si>
-    <t>SNOMED 277455002 (finding)</t>
-  </si>
-  <si>
-    <t>e089710f31c94c55a85b41b173ee308e</t>
-  </si>
-  <si>
-    <t>Is : Found | Current | Tobacco Use and Exposure</t>
-  </si>
-  <si>
-    <t>SNOMED: 365980008</t>
-  </si>
-  <si>
-    <t>822498d8d3d1464094eae0d40c43e8ed</t>
-  </si>
-  <si>
-    <t>Is : Found | Currrent | Diapohoresis</t>
-  </si>
-  <si>
-    <t>SNOMED : 52613005 (finding)</t>
-  </si>
-  <si>
-    <t>b22e2be405914e418f028279d94f8b59</t>
-  </si>
-  <si>
-    <t>Is : Found | Recent | Excessive Exercise</t>
-  </si>
-  <si>
-    <t>SNOMED: 102533007 (finding)</t>
-  </si>
-  <si>
-    <t>ea13e6e9ec2c475aa145f4b32a9d2f42</t>
-  </si>
-  <si>
-    <t>Is : Found | Recent | Uncontrolled + Ventricular Response</t>
-  </si>
-  <si>
-    <t>57862e5704fb43d6af3eb2cc51a2671f</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Active + Coronary Artery Disease</t>
-  </si>
-  <si>
-    <t>53741008 | Coronary arteriosclerosis (disorder) |</t>
-  </si>
-  <si>
-    <t>c68b050647d649d1b4503b2efea22028</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Active + Hyperthyroidism</t>
-  </si>
-  <si>
-    <t>SNOMED 34486009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( http://concepts.kcm.mayo.edu89fe86f3-f7df-4eda-9896-33128029ccc9 )</t>
-  </si>
-  <si>
-    <t>7f71185382cf4197a28a0217f7aeac8e</t>
-  </si>
-  <si>
-    <t>Choice : Treatment : Rate vs Rhythm,
-Is : Has | Current | Active + Hyperthyroidism (2 times),
-Is : Has | Current | Active + Hyperthyroidism (g) (3 times)</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Active + LVD</t>
+Is : Has | Current | Active + Hyperthyroidism (g FHIR) (5 times),
+Is : Has | Current | Active + Hyperthyroidism (g KED) (5 times),
+Is : Has | Current | Active + Hyperthyroidism (KED) (2 times),
+Test Decision</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Active Severe Structural Heart Disease</t>
+  </si>
+  <si>
+    <t>SNOMED : Structural Disorder of Heart - 128599005</t>
+  </si>
+  <si>
+    <t>b933841d34874b3da5be736964b68475</t>
+  </si>
+  <si>
+    <t>Choice : Care Setting for Treatment,
+Choice : Treatment : Rate vs Rhythm,
+Heart Failure / Struct. Heart Disease,
+Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Cardiomyopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85898001 | Cardiomyopathy (disorder) |
+</t>
+  </si>
+  <si>
+    <t>a08cd23ebddf43e4b86e639a9d9bb149</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Dehydration</t>
+  </si>
+  <si>
+    <t>SNOMED 340950006 (disorder)</t>
+  </si>
+  <si>
+    <t>1653ea78137040479bc670733f415763</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Heart Valve Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368009 | Heart valve disorder (disorder) |
+</t>
+  </si>
+  <si>
+    <t>ffdeeed91ff842759087c0631841ee42</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38341003 | Hypertensive disorder, systemic arterial (disorder) |
+</t>
+  </si>
+  <si>
+    <t>77d0bd09cbef4237a9805bc8ef6b16d2</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - Hypotension</t>
+  </si>
+  <si>
+    <t>SNOMED : 45007003 (disorder)</t>
+  </si>
+  <si>
+    <t>7c0a4e19471b4bffa9a3d14e102d56b1</t>
+  </si>
+  <si>
+    <t>Is : Currently | Has - LVD</t>
   </si>
   <si>
     <t xml:space="preserve">429589006 | Left ventricular cardiac dysfunction (disorder) |
@@ -1505,71 +1568,7 @@
     <t>571b159b43da4f24bca3499c5aaecb32</t>
   </si>
   <si>
-    <t>Is : Has | Current | Active + Severe + Structural Heart Disease</t>
-  </si>
-  <si>
-    <t>SNOMED : Structural Disorder of Heart - 128599005</t>
-  </si>
-  <si>
-    <t>b933841d34874b3da5be736964b68475</t>
-  </si>
-  <si>
-    <t>Choice : Care Setting for Treatment,
-Choice : Treatment : Rate vs Rhythm,
-Choice : Treatment? : Antiarrhythmic Drugs,
-Heart Failure / Struct. Heart Disease,
-Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Cardiomyopathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85898001 | Cardiomyopathy (disorder) |
-</t>
-  </si>
-  <si>
-    <t>a08cd23ebddf43e4b86e639a9d9bb149</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Dehydration</t>
-  </si>
-  <si>
-    <t>SNOMED 340950006 (disorder)</t>
-  </si>
-  <si>
-    <t>1653ea78137040479bc670733f415763</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Heart Valve Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368009 | Heart valve disorder (disorder) |
-</t>
-  </si>
-  <si>
-    <t>ffdeeed91ff842759087c0631841ee42</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Hypertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38341003 | Hypertensive disorder, systemic arterial (disorder) |
-</t>
-  </si>
-  <si>
-    <t>77d0bd09cbef4237a9805bc8ef6b16d2</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Hypotension</t>
-  </si>
-  <si>
-    <t>SNOMED : 45007003 (disorder)</t>
-  </si>
-  <si>
-    <t>7c0a4e19471b4bffa9a3d14e102d56b1</t>
-  </si>
-  <si>
-    <t>Is : Has | Current | Low Output Heart Failure</t>
+    <t>Is : Currently | Has - Low Output Heart Failure</t>
   </si>
   <si>
     <t>SNOMED 25544003</t>
@@ -1583,7 +1582,7 @@
 Need : Emergent Cardioversion</t>
   </si>
   <si>
-    <t>Is : Has | Current | Mitral Stenosis</t>
+    <t>Is : Currently | Has - Mitral Stenosis</t>
   </si>
   <si>
     <t xml:space="preserve">79619009 | Mitral valve stenosis (disorder) |
@@ -1593,7 +1592,7 @@
     <t>8762430acccf4b9089a383464070918a</t>
   </si>
   <si>
-    <t>Is : Has | Current | Symptomatic + Atrial Fibrillation</t>
+    <t>Is : Currently | Has - Symptomatic Atrial Fibrillation</t>
   </si>
   <si>
     <t>264931009 (qualifier)
@@ -1603,7 +1602,7 @@
     <t>907429425fef4e0c9ca777a401eee5e4</t>
   </si>
   <si>
-    <t>Is : Has | Current | Untreated + Sleep Apnea</t>
+    <t>Is : Currently | Has - Untreated Sleep Apnea</t>
   </si>
   <si>
     <t xml:space="preserve">sleep apnea SNOMED 7340006
@@ -1613,7 +1612,62 @@
     <t>74a76c5f855b43dfa3e4f89224058efd</t>
   </si>
   <si>
-    <t>Is : Has | Past | Arterial Thromboembolic Event</t>
+    <t>Is : Currently | Needs - Emergent  Cardioversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25876001 | Emergency (qualifier value) |
+250980009 | Cardioversion (procedure) |
+</t>
+  </si>
+  <si>
+    <t>39be76f4307a41f591f6d32cd3b174d3</t>
+  </si>
+  <si>
+    <t>Need : Emergent Cardioversion (2 times)</t>
+  </si>
+  <si>
+    <t>Is : Currently | On - Sympathomimetics</t>
+  </si>
+  <si>
+    <t>372884008 | Sympathomimetic agent (substance) |</t>
+  </si>
+  <si>
+    <t>2d64a4cdfb9245688d17a9f1651487db</t>
+  </si>
+  <si>
+    <t>Is : History of | Mitral Valve Replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53059001 | Replacement of mitral valve (procedure) |
+</t>
+  </si>
+  <si>
+    <t>87982f4e54dd48a7b170888e9466e1d1</t>
+  </si>
+  <si>
+    <t>Is : Long Term | Needs - Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>719e44aef77f4634ae2ac1b793736edd</t>
+  </si>
+  <si>
+    <t>Is: Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Is : Near Future | Needs - TEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105376000 | Transesophageal echocardiography (procedure) |
+</t>
+  </si>
+  <si>
+    <t>15dbc69701994a989d3764dd3abfda55</t>
+  </si>
+  <si>
+    <t>Need : TEE</t>
+  </si>
+  <si>
+    <t>Is : Past | Has - Arterial Thromboembolic Event</t>
   </si>
   <si>
     <t xml:space="preserve">274101000 | Aortic thromboembolism (disorder) |
@@ -1624,7 +1678,7 @@
     <t>c7863567392449b8becefe4de177dcbe</t>
   </si>
   <si>
-    <t>Is : Has | Past | CVA</t>
+    <t>Is : Past | Has - CVA</t>
   </si>
   <si>
     <t>230690007 (disorder)</t>
@@ -1633,7 +1687,28 @@
     <t>78885e5c43684864b0dc813ef77f4f57</t>
   </si>
   <si>
-    <t>Is : Has | Recent | CVA</t>
+    <t>Is : Past | TEE</t>
+  </si>
+  <si>
+    <t>6d2c7381defe41e1bb4e96525443d3aa</t>
+  </si>
+  <si>
+    <t>Is : Recent | Excessive Exercise</t>
+  </si>
+  <si>
+    <t>SNOMED: 102533007 (finding)</t>
+  </si>
+  <si>
+    <t>ea13e6e9ec2c475aa145f4b32a9d2f42</t>
+  </si>
+  <si>
+    <t>Is : Recent | Uncontrolled Ventricular Response</t>
+  </si>
+  <si>
+    <t>57862e5704fb43d6af3eb2cc51a2671f</t>
+  </si>
+  <si>
+    <t>Is : Recently | Has - CVA</t>
   </si>
   <si>
     <t>230690007</t>
@@ -1642,7 +1717,7 @@
     <t>d5fa65676b2f4d1fafb62bcbe46c445e</t>
   </si>
   <si>
-    <t>Is : Has | Recent | TIA</t>
+    <t>Is : Recently | Has - TIA</t>
   </si>
   <si>
     <t>SNOMED : 266257000 (disorder)</t>
@@ -1651,7 +1726,7 @@
     <t>63879d59265f4f49a444f4d2cdf1a805</t>
   </si>
   <si>
-    <t>Is : Need | Short Term | Anticoagulant</t>
+    <t>Is : Short Term | Needs - Anticoagulants</t>
   </si>
   <si>
     <t xml:space="preserve">81839001 | Anticoagulant (product) |
@@ -1666,74 +1741,7 @@
 Need : Acute Anticoagulation</t>
   </si>
   <si>
-    <t>Is : Needs | Future | Antiarrhythmic</t>
-  </si>
-  <si>
-    <t>719e44aef77f4634ae2ac1b793736edd</t>
-  </si>
-  <si>
-    <t>Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Is : Needs | Future | Emergency  + Cardioversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25876001 | Emergency (qualifier value) |
-250980009 | Cardioversion (procedure) |
-</t>
-  </si>
-  <si>
-    <t>39be76f4307a41f591f6d32cd3b174d3</t>
-  </si>
-  <si>
-    <t>Need : Emergent Cardioversion (2 times)</t>
-  </si>
-  <si>
-    <t>Is : Needs | Future | TEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105376000 | Transesophageal echocardiography (procedure) |
-</t>
-  </si>
-  <si>
-    <t>15dbc69701994a989d3764dd3abfda55</t>
-  </si>
-  <si>
-    <t>Need : TEE</t>
-  </si>
-  <si>
-    <t>Is : On | Current | Negative Dromotropics</t>
-  </si>
-  <si>
-    <t>0b3dc48c8e2d4c929f6e21eb78115df0</t>
-  </si>
-  <si>
-    <t>Is : On | Current | Sympathomimetics</t>
-  </si>
-  <si>
-    <t>372884008 | Sympathomimetic agent (substance) |</t>
-  </si>
-  <si>
-    <t>2d64a4cdfb9245688d17a9f1651487db</t>
-  </si>
-  <si>
-    <t>Is : Subject of | Ever | Mitral Valve Replacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53059001 | Replacement of mitral valve (procedure) |
-</t>
-  </si>
-  <si>
-    <t>87982f4e54dd48a7b170888e9466e1d1</t>
-  </si>
-  <si>
-    <t>Is : Subject of | Past | TEE</t>
-  </si>
-  <si>
-    <t>6d2c7381defe41e1bb4e96525443d3aa</t>
-  </si>
-  <si>
-    <t>Is: Has | Current | Active + Heart Failure</t>
+    <t>Is: Currently | Has - Active Heart Failure</t>
   </si>
   <si>
     <t>SNOMED 84114007 (disorder)</t>
@@ -1747,10 +1755,11 @@
 Heart Failure / Struct. Heart Disease,
 Need : Acute Anticoagulation,
 Need : Emergent Cardioversion,
-Need : TEE</t>
-  </si>
-  <si>
-    <t>Is: Has | Current | Active + Myocardial Ischemia</t>
+Need : TEE,
+TestExport (2 times)</t>
+  </si>
+  <si>
+    <t>Is: Currently | Has - Active Myocardial Ischemia</t>
   </si>
   <si>
     <t>SNOMED 414795007 (disorder)</t>
@@ -1764,7 +1773,7 @@
 Need : Emergent Cardioversion</t>
   </si>
   <si>
-    <t>Is: Has | Current | Angina</t>
+    <t>Is: Currently | Has - Angina</t>
   </si>
   <si>
     <t>SNOMED : 194828000 (disorder)</t>
@@ -1778,7 +1787,21 @@
 Myocardial Ischemia</t>
   </si>
   <si>
-    <t>Kind of : Has | Current | Kidney Disease</t>
+    <t>Kind of : Currently | Has - Kidney Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14304000 | Disorder of thyroid gland (disorder) |
+</t>
+  </si>
+  <si>
+    <t>2cfd8542f201484099b15160fc892825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19829001 | Disorder of lung (disorder) |
+</t>
+  </si>
+  <si>
+    <t>7af6cf57a4934eb6901716b8562b8200</t>
   </si>
   <si>
     <t xml:space="preserve">90708001 | Kidney disease (disorder) |
@@ -1788,9 +1811,6 @@
     <t>c7395561a8e7402fa886d6f1f7979764</t>
   </si>
   <si>
-    <t>Kind of : Has | Current | Liver Disease</t>
-  </si>
-  <si>
     <t xml:space="preserve">235856003 | Disorder of liver (disorder) |
 </t>
   </si>
@@ -1798,48 +1818,22 @@
     <t>a10f38f58d23480ea5ad5e949f8e0053</t>
   </si>
   <si>
-    <t>Kind of : Has | Current | Pulmonary Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19829001 | Disorder of lung (disorder) |
-</t>
-  </si>
-  <si>
-    <t>7af6cf57a4934eb6901716b8562b8200</t>
-  </si>
-  <si>
-    <t>Kind of : Has | Current | Thyroid Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14304000 | Disorder of thyroid gland (disorder) |
-</t>
-  </si>
-  <si>
-    <t>2cfd8542f201484099b15160fc892825</t>
-  </si>
-  <si>
-    <t>Kind of : On | Future | Antiarrhythmic</t>
+    <t>Kind of : Future | Needs - Antiarrhythmics</t>
   </si>
   <si>
     <t>f9c85bdf30d5408c9ac5c7ae7aeee5c9</t>
   </si>
   <si>
-    <t>Choice : Treatment? : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Kind of : Outcome of | Future | Management of + Regularity of Heart Rhythm</t>
+    <t>Kind of : Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Kind of : Future | Predicted - Outcome of - Management of - Regularity of Heart Rhythm</t>
   </si>
   <si>
     <t>143f9f4bd94c43228666d8fee5606015</t>
   </si>
   <si>
-    <t>Kind of : Outcome of | Past | Management of + Regularity of Heart Rhythm</t>
-  </si>
-  <si>
-    <t>d0799e9cc49349d5ad261a83d36b0414</t>
-  </si>
-  <si>
-    <t>Kind of : Planned | Management of + Atrial Fibrillation (Rate vs Rhythm Control)</t>
+    <t>Kind of : Near Future | Management of - Atrial Fibrillation</t>
   </si>
   <si>
     <t>( 119270007 | Management procedure (procedure) |
@@ -1854,7 +1848,7 @@
 Choice : Treatment : Rate vs Rhythm (6 times)</t>
   </si>
   <si>
-    <t>Kind of : Treated at | Site of Care</t>
+    <t>Kind of : Near Future | Setting for - Management of - Atrial Fibrillation</t>
   </si>
   <si>
     <t>43741000 | Site of care (environment) |</t>
@@ -1863,7 +1857,13 @@
     <t>de87e32fa1844f259e232eb3f4de0cbc</t>
   </si>
   <si>
-    <t>Likelihood of : Has | Current | Left Atrial Thrombus</t>
+    <t>Kind of : Past | Outcome of - Control of - Heart Rhythm</t>
+  </si>
+  <si>
+    <t>d0799e9cc49349d5ad261a83d36b0414</t>
+  </si>
+  <si>
+    <t>Likelihood of : Currently | Has - Left Atrial Thrombus</t>
   </si>
   <si>
     <t xml:space="preserve">473360003 | Thrombus of left atrium (disorder) |
@@ -1873,24 +1873,24 @@
     <t>dc2adae1496a4cad9af3d68a7c5bd9cb</t>
   </si>
   <si>
-    <t>Onset of : Has | Current | Atrial Fibrillation</t>
+    <t>Time of : Current | Onset of - Atrial Fibrillation</t>
   </si>
   <si>
     <t>be9535feccf84021a25baeda9ca0105b</t>
   </si>
   <si>
-    <t>Trend of : Measured | Recent | Heart Rate</t>
+    <t>Trend of : Recently | Measured - Heart Rate</t>
   </si>
   <si>
     <t>fc0db94e69e247f0a88d2aa8da55662c</t>
   </si>
   <si>
     <t>Choice : Treatment : Rate vs Rhythm,
-Choice : Treatment? : Antiarrhythmic Drugs,
-Need : Antiarrhythmic Drugs</t>
-  </si>
-  <si>
-    <t>Trend of : Measured | Recent | INR / TTR</t>
+Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Trend of : Recently | Measured - INR / TTR</t>
   </si>
   <si>
     <t xml:space="preserve">165581004 | International normalized ratio (observable entity) |
@@ -1900,7 +1900,7 @@
     <t>631e988cbbde41bbbba29ba5c4931f91</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | Blood Pressure</t>
+    <t>Value of : Current | Blood Pressure</t>
   </si>
   <si>
     <t>75367002 (observable)</t>
@@ -1914,10 +1914,12 @@
 Current Blood Pressure (g) (4 times),
 Heart Failure / Struct. Heart Disease,
 Low Output State,
-Need : Emergent Cardioversion</t>
-  </si>
-  <si>
-    <t>Value of : Measured | Current | Cardiac Ejection Fraction</t>
+Need : Emergent Cardioversion,
+Test Decision,
+TestExport</t>
+  </si>
+  <si>
+    <t>Value of : Current | Cardiac Ejection Fraction</t>
   </si>
   <si>
     <t xml:space="preserve">70822001 | Cardiac ejection fraction, function (observable entity) |
@@ -1927,7 +1929,7 @@
     <t>14ab3d89775c47c39e9559d06ca50c66</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | Creatinine Clearance</t>
+    <t>Value of : Current | Creatinine Clearance</t>
   </si>
   <si>
     <t xml:space="preserve">102811001 | Creatinine renal clearance, function (observable entity) |
@@ -1937,7 +1939,7 @@
     <t>78e42d520f80481da51a4e1c0e1c05ef</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | Heart Rate</t>
+    <t>Value of : Current | Heart Rate</t>
   </si>
   <si>
     <t>7099f0b14a494d5baee72b0f8a8a2aab</t>
@@ -1950,7 +1952,7 @@
 Need : Emergent Cardioversion</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | Liver Function</t>
+    <t>Value of : Current | Liver Function</t>
   </si>
   <si>
     <t xml:space="preserve">79036002 | Liver function (observable entity) |
@@ -1960,7 +1962,12 @@
     <t>50a4ed95abeb41e69702b55351d5cd5d</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | QRS interval</t>
+    <t>Is: Long Term | Needs Antiarrhythmics,
+Kind of : Long Term | Needs Antiarrhythmics,
+Test Decision</t>
+  </si>
+  <si>
+    <t>Value of : Current | QRS interval</t>
   </si>
   <si>
     <t xml:space="preserve">39632005 | QRS interval, function (observable entity) |
@@ -1970,7 +1977,7 @@
     <t>0506d8ae18eb451aa7e7a400b32873c2</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | QTc interval</t>
+    <t>Value of : Current | QTc interval</t>
   </si>
   <si>
     <t xml:space="preserve">81435004 | QT interval feature (observable entity) |
@@ -1981,12 +1988,16 @@
     <t>45f16aa6f3c04f8dbd1ab75aa27b6576</t>
   </si>
   <si>
-    <t>Value of : Measured | Current | Troponin</t>
+    <t>Value of : Current | Troponin</t>
   </si>
   <si>
     <t>e677060a0db74a7a9ac55e9337824e92</t>
   </si>
   <si>
+    <t>Myocardial Ischemia,
+Test Decision</t>
+  </si>
+  <si>
     <t>Abstract Decision</t>
   </si>
   <si>
@@ -1994,7 +2005,8 @@
   </si>
   <si>
     <t>Choice : Treatment : Rate vs Rhythm,
-Is : Has | Current | Active + Hyperthyroidism (g),
+Is : Has | Current | Active + Hyperthyroidism (g FHIR),
+Is : Has | Current | Active + Hyperthyroidism (g KED),
 Long term anticoagulation (3 times)</t>
   </si>
   <si>
@@ -2004,18 +2016,54 @@
     <t>6bc123fac8df433ca33997bb19da0b6d</t>
   </si>
   <si>
+    <t>Assessment Decision</t>
+  </si>
+  <si>
+    <t>661a20302dae4e84ac25e81fcd8e751d</t>
+  </si>
+  <si>
+    <t>Correlation Decision</t>
+  </si>
+  <si>
+    <t>92be2be2959a4294b075cd708e365ee8</t>
+  </si>
+  <si>
+    <t>Individualized Decision</t>
+  </si>
+  <si>
+    <t>45359f0fcb9a4039acdd58c7e98df90a</t>
+  </si>
+  <si>
     <t>Operational Decision</t>
   </si>
   <si>
     <t>f708cda5b6a54113aa9b229a83996ca3</t>
   </si>
   <si>
-    <t>Choice : Treatment : Rate vs Rhythm (2 times),
-Current Blood Pressure (g),
+    <t>Current Blood Pressure (g),
 Glossary: Diabetes mellitus  (7 times),
 Glossary: Diabetes mellitus (Official) (6 times),
-Is : Has | Current | Active + Hyperthyroidism,
-Is : Has | Current | Active + Hyperthyroidism (g)</t>
+Is : Has | Current | Active + Hyperthyroidism (g FHIR),
+Is : Has | Current | Active + Hyperthyroidism (g KED),
+Is : Has | Current | Active + Hyperthyroidism (KED)</t>
+  </si>
+  <si>
+    <t>Population-based decision</t>
+  </si>
+  <si>
+    <t>05741e615fb04f0faf2cc507e8669b1c</t>
+  </si>
+  <si>
+    <t>Pragmatic Decision</t>
+  </si>
+  <si>
+    <t>16a70da7f06d43e688372dc9d49fed31</t>
+  </si>
+  <si>
+    <t>Predictive Decision</t>
+  </si>
+  <si>
+    <t>34ea23d303dc4bfebd1291fec65dcbc5</t>
   </si>
   <si>
     <t>Primary Decision</t>
@@ -2028,6 +2076,9 @@
   </si>
   <si>
     <t>c22e8a57f8dd4427b6390f6a6bde1d3b</t>
+  </si>
+  <si>
+    <t>Choice : Treatment : Rate vs Rhythm (5 times)</t>
   </si>
   <si>
     <t>Semantic Decision</t>
@@ -2074,13 +2125,33 @@
 Glossary: Diabetes mellitis (Copy) (2 times),
 Glossary: Diabetes mellitus  (4 times),
 Glossary: Diabetes mellitus (Official) (2 times),
-Is : Has | Current | Active + Hyperthyroidism (g)</t>
+Is : Has | Current | Active + Hyperthyroidism (g FHIR),
+Is : Has | Current | Active + Hyperthyroidism (g KED)</t>
   </si>
   <si>
     <t>Clinical Guideline</t>
   </si>
   <si>
     <t>809a484ad79c499984bc4236df9d0192</t>
+  </si>
+  <si>
+    <t>Choice : Treatment : Rate vs Rhythm,
+Test Decision</t>
+  </si>
+  <si>
+    <t>Cognitive Care Process Model</t>
+  </si>
+  <si>
+    <t>13f9acb4b9be4182b0d4f3923177f1a2</t>
+  </si>
+  <si>
+    <t>A-Fib Simplified CCPM</t>
+  </si>
+  <si>
+    <t>Computational Decision Model</t>
+  </si>
+  <si>
+    <t>4eb8bf81b72e4a39a0c6a6b4f01898ea</t>
   </si>
   <si>
     <t>Concept Definition</t>
@@ -2095,7 +2166,9 @@
     <t>Glossary: Diabetes mellitis (Copy),
 Glossary: Diabetes mellitis (Copy),
 Glossary: Diabetes mellitus ,
-Glossary: Diabetes mellitus (Official)</t>
+Glossary: Diabetes mellitus (Official),
+Is : Has | Current | Active + Hyperthyroidism (g FHIR),
+Is : Has | Current | Active + Hyperthyroidism (g KED)</t>
   </si>
   <si>
     <t>Content section</t>
@@ -2120,7 +2193,8 @@
   </si>
   <si>
     <t>Glossary: Diabetes mellitus (Official),
-Is : Has | Current | Active + Hyperthyroidism</t>
+Is : Has | Current | Active + Hyperthyroidism (KED),
+QT Prolongation (4 times)</t>
   </si>
   <si>
     <t>Information Model</t>
@@ -2130,6 +2204,30 @@
   </si>
   <si>
     <t>Current Blood Pressure</t>
+  </si>
+  <si>
+    <t>KCMS Concept</t>
+  </si>
+  <si>
+    <t>33529066f3fd47baa8289c9c09d73e6e</t>
+  </si>
+  <si>
+    <t>KCMS External Link</t>
+  </si>
+  <si>
+    <t>95dccc78db0d4e088aee808d8f7559e2</t>
+  </si>
+  <si>
+    <t>KCMS Section</t>
+  </si>
+  <si>
+    <t>e03a62ab2bd94b23b2ae22f9c547e050</t>
+  </si>
+  <si>
+    <t>KCMS Table</t>
+  </si>
+  <si>
+    <t>aa71cddb42a94eafa3b2c5bd5d9db365</t>
   </si>
   <si>
     <t>Knowledge-Based Data Enrichment Specification</t>
@@ -2143,6 +2241,10 @@
     <t>157456626d614170b02df1b87bc81242</t>
   </si>
   <si>
+    <t>Is : Has | Current | Active + Hyperthyroidism (g KED),
+Is : Has | Current | Active + Hyperthyroidism (KED)</t>
+  </si>
+  <si>
     <t>NLP Annotation Guide</t>
   </si>
   <si>
@@ -2156,6 +2258,15 @@
   </si>
   <si>
     <t>Glossary: Diabetes mellitus (Official) (2 times)</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>a24a739fc48341c4b72ead98b98f07ac</t>
+  </si>
+  <si>
+    <t>Is : Has | Current | Active + Hyperthyroidism (g FHIR)</t>
   </si>
   <si>
     <t>Semantic decision model</t>
@@ -2181,7 +2292,7 @@
 Glossary: Diabetes mellitis (Copy) (2 times),
 Glossary: Diabetes mellitus  (2 times),
 Glossary: Diabetes mellitus (Official) (3 times),
-Is : Has | Current | Active + Hyperthyroidism</t>
+QT Prolongation (4 times)</t>
   </si>
   <si>
     <t>Web Service</t>
@@ -2216,7 +2327,9 @@
 Glossary: Diabetes mellitis (Copy),
 Glossary: Diabetes mellitus ,
 Glossary: Diabetes mellitus (Official),
-Is : Has | Current | Active + Hyperthyroidism</t>
+Is : Has | Current | Active + Hyperthyroidism (KED),
+QT Prolongation (4 times),
+Test Decision</t>
   </si>
   <si>
     <t>DMN</t>
@@ -2228,7 +2341,8 @@
     <t>Glossary: Diabetes mellitis (Copy) (2 times),
 Glossary: Diabetes mellitis (Copy) (2 times),
 Glossary: Diabetes mellitus  (3 times),
-Glossary: Diabetes mellitus (Official)</t>
+Glossary: Diabetes mellitus (Official),
+Is : Has | Current | Active + Hyperthyroidism (g KED)</t>
   </si>
   <si>
     <t>DOC</t>
@@ -2237,6 +2351,12 @@
     <t>caabf53f2eb9404b8b3503c3823a7f97</t>
   </si>
   <si>
+    <t>FHIR</t>
+  </si>
+  <si>
+    <t>0a9d4b9c02584404bc055381fe56e513</t>
+  </si>
+  <si>
     <t>FHIR - XML</t>
   </si>
   <si>
@@ -2255,11 +2375,14 @@
     <t>d8ac102dcb994d38b08e31354394106b</t>
   </si>
   <si>
-    <t>Choice : Treatment : Rate vs Rhythm,
+    <t>Choice : Treatment : Rate vs Rhythm (2 times),
 Glossary: Diabetes mellitis (Copy),
 Glossary: Diabetes mellitis (Copy),
 Glossary: Diabetes mellitus ,
-Glossary: Diabetes mellitus (Official)</t>
+Glossary: Diabetes mellitus (Official),
+Is : Has | Current | Active + Hyperthyroidism (g FHIR),
+Is : Has | Current | Active + Hyperthyroidism (g KED),
+Test Decision</t>
   </si>
   <si>
     <t>Java</t>
@@ -2291,6 +2414,42 @@
   <si>
     <t>ASCVD - PCSK9 Inhibitors,
 Familial Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>59231da13e4a454b8694dbe81c5eecac</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>62d43b9c4cfe44039db2f093c7da3f23</t>
+  </si>
+  <si>
+    <t>QT Prolongation</t>
+  </si>
+  <si>
+    <t>Knowledge Resource Type</t>
+  </si>
+  <si>
+    <t>527f19f2dd2640d99115d10c157f1ba8</t>
+  </si>
+  <si>
+    <t>Choice: Knowledge Resource Handler</t>
+  </si>
+  <si>
+    <t>Language metadata element</t>
+  </si>
+  <si>
+    <t>a9854471759843e680f03b118f44dfe5</t>
+  </si>
+  <si>
+    <t>MedOrders</t>
+  </si>
+  <si>
+    <t>8f20f7640dbd469b816da2d1a9e9a926</t>
   </si>
   <si>
     <t>Statin</t>
@@ -13159,22 +13318,22 @@
         <v>272</v>
       </c>
       <c r="F27" t="s" s="5">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F28" t="s" s="5">
         <v>0</v>
@@ -13182,17 +13341,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F29" t="s" s="5">
         <v>0</v>
@@ -13200,17 +13359,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s" s="5">
         <v>0</v>
@@ -13218,17 +13377,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F31" t="s" s="5">
         <v>0</v>
@@ -14905,17 +15064,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s" s="5">
         <v>0</v>
@@ -14923,19 +15082,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s" s="5">
         <v>0</v>
@@ -14943,20 +15102,20 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -16626,14 +16785,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s" s="5">
         <v>0</v>
@@ -16641,59 +16800,59 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s" s="5">
         <v>0</v>
@@ -16701,14 +16860,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E12" t="s" s="5">
         <v>0</v>
@@ -16716,14 +16875,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s" s="5">
         <v>0</v>
@@ -16731,17 +16890,17 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15">
@@ -18211,201 +18370,201 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="5">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s" s="5">
         <v>339</v>
-      </c>
-      <c r="E13" t="s" s="5">
-        <v>337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D15" t="s" s="5">
+        <v>347</v>
+      </c>
+      <c r="E15" t="s" s="5">
         <v>345</v>
-      </c>
-      <c r="E15" t="s" s="5">
-        <v>343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20">
@@ -19875,326 +20034,324 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>367</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>395</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D23" t="s" s="5">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E24" t="s" s="5">
-        <v>419</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B26" t="s" s="2">
         <v>424</v>
       </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>0</v>
       </c>
@@ -20202,7 +20359,7 @@
         <v>425</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>415</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
@@ -20219,56 +20376,56 @@
         <v>428</v>
       </c>
       <c r="E27" t="s" s="5">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D30" t="s" s="5">
+        <v>436</v>
+      </c>
+      <c r="E30" t="s" s="5">
         <v>437</v>
-      </c>
-      <c r="E30" t="s" s="5">
-        <v>419</v>
       </c>
     </row>
     <row r="31">
@@ -20285,7 +20442,7 @@
         <v>440</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32">
@@ -20302,7 +20459,7 @@
         <v>443</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33">
@@ -20319,7 +20476,7 @@
         <v>446</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>429</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
@@ -20336,360 +20493,360 @@
         <v>449</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>395</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>367</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s" s="5">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D39" t="s" s="5">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E39" t="s" s="5">
-        <v>466</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E40" t="s" s="5">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E43" t="s" s="5">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>429</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E45" t="s" s="5">
-        <v>485</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>371</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>395</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>395</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>371</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>388</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>388</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E53" t="s" s="5">
-        <v>510</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>513</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56">
@@ -20706,63 +20863,65 @@
         <v>520</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>521</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>395</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D59" t="s" s="5">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E59" t="s" s="5">
-        <v>371</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>0</v>
       </c>
@@ -20770,80 +20929,80 @@
         <v>531</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D61" t="s" s="5">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D62" t="s" s="5">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E62" t="s" s="5">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D63" t="s" s="5">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E63" t="s" s="5">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>548</v>
@@ -20855,86 +21014,88 @@
         <v>549</v>
       </c>
       <c r="E65" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D66" t="s" s="5">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D67" t="s" s="5">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D69" t="s" s="5">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D70" t="s" s="5">
+        <v>561</v>
+      </c>
+      <c r="E70" t="s" s="5">
         <v>562</v>
-      </c>
-      <c r="E70" t="s" s="5">
-        <v>239</v>
       </c>
     </row>
     <row r="71">
@@ -20951,220 +21112,218 @@
         <v>565</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>566</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D72" t="s" s="5">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>402</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D73" t="s" s="5">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E73" t="s" s="5">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D77" t="s" s="5">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E77" t="s" s="5">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D78" t="s" s="5">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E78" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E79" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>374</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D83" t="s" s="5">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E83" t="s" s="5">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D84" t="s" s="5">
+        <v>603</v>
+      </c>
+      <c r="E84" t="s" s="5">
         <v>604</v>
-      </c>
-      <c r="E84" t="s" s="5">
-        <v>419</v>
       </c>
     </row>
     <row r="85">
@@ -26212,19 +26371,19 @@
         <v>611</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>612</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E10" t="s" s="5">
         <v>0</v>
@@ -26232,90 +26391,138 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="5">
+        <v>617</v>
+      </c>
+      <c r="E12" t="s" s="5">
         <v>618</v>
-      </c>
-      <c r="E12" t="s" s="5">
-        <v>619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="5">
+        <v>620</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" t="s" s="5">
+        <v>622</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>239</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>624</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>239</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>626</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s" s="5">
+        <v>628</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>629</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>631</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>632</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s" s="5">
+        <v>634</v>
+      </c>
+      <c r="E19" t="s" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
@@ -27674,6 +27881,48 @@
       <c r="C213" s="6"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" selectLockedCells="false" selectUnlockedCells="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" sort="false" autoFilter="false" pivotTables="false" objects="false" scenarios="false" password="7369676E6176696F"/>
@@ -27742,298 +27991,354 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>395</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>633</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>643</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>648</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>455</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>113</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>658</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>675</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>654</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>679</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>113</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>681</v>
+      </c>
+      <c r="E24" t="s" s="5">
+        <v>682</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s" s="5">
+        <v>684</v>
+      </c>
+      <c r="E25" t="s" s="5">
+        <v>685</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="A26" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s" s="5">
+        <v>687</v>
+      </c>
+      <c r="E26" t="s" s="5">
+        <v>645</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="D27" t="s" s="5">
+        <v>691</v>
+      </c>
+      <c r="E27" t="s" s="5">
+        <v>692</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>694</v>
+      </c>
+      <c r="E28" t="s" s="5">
+        <v>113</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s" s="5">
+        <v>696</v>
+      </c>
+      <c r="E29" t="s" s="5">
+        <v>682</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6"/>
@@ -29385,6 +29690,55 @@
       <c r="C222" s="6"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" selectLockedCells="false" selectUnlockedCells="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" sort="false" autoFilter="false" pivotTables="false" objects="false" scenarios="false" password="7369676E6176696F"/>
@@ -29457,7 +29811,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>666</v>
+        <v>697</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -29467,33 +29821,33 @@
         <v>0</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>670</v>
+        <v>701</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>671</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -29503,15 +29857,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>674</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>675</v>
+        <v>706</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -29521,7 +29875,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>676</v>
+        <v>707</v>
       </c>
       <c r="F10" t="s" s="5">
         <v>113</v>
@@ -29529,43 +29883,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="F11" t="s" s="5">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="F12" t="s" s="5">
-        <v>683</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -29575,15 +29929,15 @@
         <v>0</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="F13" t="s" s="5">
-        <v>686</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -29593,15 +29947,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="F14" t="s" s="5">
-        <v>686</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -29611,19 +29965,29 @@
         <v>0</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="F15" t="s" s="5">
-        <v>654</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>723</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>682</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6"/>
@@ -31216,6 +31580,14 @@
       <c r="D215" s="6"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" selectLockedCells="false" selectUnlockedCells="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" sort="false" autoFilter="false" pivotTables="false" objects="false" scenarios="false" password="7369676E6176696F"/>
@@ -31284,128 +31656,168 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>691</v>
+        <v>724</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>693</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>693</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>701</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>693</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="E12" t="s" s="5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" t="s" s="5">
+        <v>740</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>741</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>743</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>726</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>745</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>746</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>748</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>726</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s" s="5">
+        <v>749</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
@@ -32771,6 +33183,41 @@
       <c r="C212" s="6"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="7"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" selectLockedCells="false" selectUnlockedCells="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" sort="false" autoFilter="false" pivotTables="false" objects="false" scenarios="false" password="7369676E6176696F"/>
@@ -32839,16 +33286,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>707</v>
+        <v>752</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="E7" t="s" s="5">
         <v>0</v>
@@ -32856,16 +33303,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>709</v>
+        <v>754</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c r="E8" t="s" s="5">
         <v>0</v>
